--- a/data/historical.xlsx
+++ b/data/historical.xlsx
@@ -32173,7 +32173,7 @@
         <v>113</v>
       </c>
       <c r="Q204">
-        <v>2193.9</v>
+        <v>2191.6</v>
       </c>
       <c r="R204">
         <v>1489.2</v>
@@ -32185,7 +32185,7 @@
         <v>3816.6</v>
       </c>
       <c r="U204">
-        <v>1455.6</v>
+        <v>1446.9</v>
       </c>
       <c r="V204">
         <v>111.426</v>
@@ -32203,7 +32203,7 @@
         <v>1993.1</v>
       </c>
       <c r="AA204">
-        <v>1687.4</v>
+        <v>1685</v>
       </c>
       <c r="AB204">
         <v>144.7</v>
@@ -32212,7 +32212,7 @@
         <v>207</v>
       </c>
       <c r="AD204">
-        <v>1435.4</v>
+        <v>1426.6</v>
       </c>
       <c r="AE204">
         <v>3494.9</v>
@@ -32337,103 +32337,103 @@
         <v>44196</v>
       </c>
       <c r="B205">
-        <v>21479.5</v>
+        <v>21487.9</v>
       </c>
       <c r="C205">
-        <v>18780.3</v>
+        <v>18783.9</v>
       </c>
       <c r="D205">
-        <v>114.415</v>
+        <v>114.441</v>
       </c>
       <c r="E205">
-        <v>14545.3</v>
+        <v>14542.4</v>
       </c>
       <c r="F205">
-        <v>13004.7</v>
+        <v>13000.3</v>
       </c>
       <c r="G205">
-        <v>111.851</v>
+        <v>111.867</v>
       </c>
       <c r="H205">
-        <v>112.015</v>
+        <v>112.115</v>
       </c>
       <c r="I205">
-        <v>117.773</v>
+        <v>117.726</v>
       </c>
       <c r="J205">
-        <v>117.701</v>
+        <v>117.642</v>
       </c>
       <c r="K205">
-        <v>118.101</v>
+        <v>118.106</v>
       </c>
       <c r="L205">
         <v>860.6</v>
       </c>
       <c r="M205">
-        <v>673.6</v>
+        <v>684.5</v>
       </c>
       <c r="N205">
-        <v>302.4</v>
+        <v>297.8</v>
       </c>
       <c r="O205">
-        <v>3743.8</v>
+        <v>3748.6</v>
       </c>
       <c r="P205">
         <v>113.6</v>
       </c>
       <c r="Q205">
-        <v>2226.7</v>
+        <v>2236.1</v>
       </c>
       <c r="R205">
-        <v>1503.7</v>
+        <v>1504.1</v>
       </c>
       <c r="S205">
         <v>255.4</v>
       </c>
       <c r="T205">
-        <v>3830.8</v>
+        <v>3832.6</v>
       </c>
       <c r="U205">
-        <v>1478.8</v>
+        <v>1468.2</v>
       </c>
       <c r="V205">
-        <v>111.846</v>
+        <v>111.862</v>
       </c>
       <c r="W205">
-        <v>1493.6</v>
+        <v>1493.5</v>
       </c>
       <c r="X205">
-        <v>2337.2</v>
+        <v>2339</v>
       </c>
       <c r="Y205">
-        <v>1333.3</v>
+        <v>1332.1</v>
       </c>
       <c r="Z205">
-        <v>1984.5</v>
+        <v>1986.9</v>
       </c>
       <c r="AA205">
-        <v>1710.3</v>
+        <v>1717.8</v>
       </c>
       <c r="AB205">
-        <v>151.3</v>
+        <v>150.9</v>
       </c>
       <c r="AC205">
         <v>186.3333333333333</v>
       </c>
       <c r="AD205">
-        <v>1456.9</v>
+        <v>1446.3</v>
       </c>
       <c r="AE205">
-        <v>2925.1</v>
+        <v>2919</v>
       </c>
       <c r="AF205">
         <v>738.1</v>
       </c>
       <c r="AG205">
-        <v>516.4</v>
+        <v>518.3</v>
       </c>
       <c r="AH205">
-        <v>1352.4</v>
+        <v>1353.2</v>
       </c>
       <c r="AI205">
         <v>69.03333333333333</v>
@@ -32442,10 +32442,10 @@
         <v>21.8</v>
       </c>
       <c r="AK205">
-        <v>818.7000000000001</v>
+        <v>829.6</v>
       </c>
       <c r="AL205">
-        <v>3152.2</v>
+        <v>3164.6</v>
       </c>
       <c r="AM205">
         <v>547131</v>
@@ -32457,13 +32457,13 @@
         <v>73559</v>
       </c>
       <c r="AP205">
-        <v>609.9</v>
+        <v>609.8</v>
       </c>
       <c r="AQ205">
         <v>0.6</v>
       </c>
       <c r="AR205">
-        <v>610.5</v>
+        <v>610.4</v>
       </c>
       <c r="AS205">
         <v>5</v>
@@ -32502,16 +32502,16 @@
         <v>13.8</v>
       </c>
       <c r="BE205">
-        <v>64.8</v>
+        <v>63.9</v>
       </c>
       <c r="BF205">
-        <v>112</v>
+        <v>110.8</v>
       </c>
       <c r="BG205">
-        <v>16.1</v>
+        <v>13.6</v>
       </c>
       <c r="BH205">
-        <v>203.9</v>
+        <v>199.4</v>
       </c>
       <c r="BI205">
         <v>35.83333333333334</v>
